--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547ABB7F-3B7E-1640-A921-67886FD301CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208F2062-5971-CB45-8AB4-A043177AE904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="5280" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="5980" yWindow="3320" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -86,9 +80,6 @@
     <t>End</t>
   </si>
   <si>
-    <t>Spring Recess</t>
-  </si>
-  <si>
     <t>11:00 am</t>
   </si>
   <si>
@@ -107,9 +98,6 @@
     <t>EndTime</t>
   </si>
   <si>
-    <t>Intro to Data</t>
-  </si>
-  <si>
     <t>[Chapter 1 - Intro to Data](/chapters/chapter1)</t>
   </si>
   <si>
@@ -143,16 +131,22 @@
     <t>[Final Exam](/assignments/final/)</t>
   </si>
   <si>
-    <t>[Intro Course Slides](/slides/00-Intro_to_Course.html), [Intro Data Slides](/slides/01-Intro_to_Data.html), [Video](https://youtu.be/DTeIHgKtC_A)</t>
-  </si>
-  <si>
     <t>8:00 pm</t>
   </si>
   <si>
     <t>9:00 pm</t>
   </si>
   <si>
-    <t>Shiny (optional)</t>
+    <t>8:30pm</t>
+  </si>
+  <si>
+    <t>Intro to Course / Intro to Data</t>
+  </si>
+  <si>
+    <t>NO CLASS - Thanksgiving</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -524,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -557,30 +551,27 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43859</v>
+        <v>44069</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43866</v>
+        <v>44076</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -588,13 +579,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43873</v>
+        <v>44083</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -602,13 +593,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43880</v>
+        <v>44090</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -616,13 +607,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>43887</v>
+        <v>44097</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -630,13 +621,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43894</v>
+        <v>44104</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -644,13 +635,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43901</v>
+        <v>44111</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -658,13 +649,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43908</v>
+        <v>44118</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -672,13 +663,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>43915</v>
+        <v>44125</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -686,13 +677,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43922</v>
+        <v>44132</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -700,13 +691,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43936</v>
+        <v>44139</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -714,13 +705,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>43943</v>
+        <v>44146</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -728,13 +719,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43950</v>
+        <v>44153</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -742,29 +733,37 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>43957</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
+        <v>44160</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43964</v>
+        <v>44167</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -776,10 +775,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,134 +800,123 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>43857</v>
+        <v>44069</v>
       </c>
       <c r="B2" s="2">
-        <v>43863</v>
+        <v>44073</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>43864</v>
+        <v>44074</v>
       </c>
       <c r="B3" s="2">
-        <v>43870</v>
+        <v>44080</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>43871</v>
+        <v>44081</v>
       </c>
       <c r="B4" s="2">
-        <v>43877</v>
+        <v>44087</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>43878</v>
+        <v>44088</v>
       </c>
       <c r="B5" s="2">
-        <v>43891</v>
+        <v>44101</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>43892</v>
+        <v>44102</v>
       </c>
       <c r="B6" s="2">
-        <v>43898</v>
+        <v>44108</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>43899</v>
+        <v>44109</v>
       </c>
       <c r="B7" s="2">
-        <v>43905</v>
+        <v>44115</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>43906</v>
+        <v>44116</v>
       </c>
       <c r="B8" s="2">
-        <v>43912</v>
+        <v>44122</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>43913</v>
+        <v>44123</v>
       </c>
       <c r="B9" s="2">
-        <v>43940</v>
+        <v>44136</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>43929</v>
+        <v>44137</v>
       </c>
       <c r="B10" s="2">
-        <v>43937</v>
+        <v>44164</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>43941</v>
+        <v>44165</v>
       </c>
       <c r="B11" s="2">
-        <v>43954</v>
+        <v>44171</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>43955</v>
+        <v>44174</v>
       </c>
       <c r="B12" s="2">
-        <v>43964</v>
+        <v>44178</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>43965</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43968</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -955,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -966,10 +954,10 @@
         <v>43868</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -977,10 +965,10 @@
         <v>43871</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208F2062-5971-CB45-8AB4-A043177AE904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C79FBD4-9890-C847-ADE6-068EC0D02EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="3320" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Date</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/dvtdmL6lwvs), [Intro Course Slides](/slides/00-Intro_to_Course.html), [Slides](/slides/01-Intro_to_Data.html)</t>
   </si>
 </sst>
 </file>
@@ -775,19 +778,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -798,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44069</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44074</v>
       </c>
@@ -820,7 +827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44081</v>
       </c>
@@ -831,7 +838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44088</v>
       </c>
@@ -842,7 +849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44102</v>
       </c>
@@ -853,7 +860,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44109</v>
       </c>
@@ -864,7 +871,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44116</v>
       </c>
@@ -875,7 +882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44123</v>
       </c>
@@ -886,7 +893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44137</v>
       </c>
@@ -897,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44165</v>
       </c>
@@ -908,7 +915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44174</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C79FBD4-9890-C847-ADE6-068EC0D02EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1299E90B-05A0-0845-99C7-2F33284846FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="3320" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="5980" yWindow="3320" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <t>TBD</t>
   </si>
   <si>
-    <t>[Video](https://youtu.be/dvtdmL6lwvs), [Intro Course Slides](/slides/00-Intro_to_Course.html), [Slides](/slides/01-Intro_to_Data.html)</t>
+    <t>[Video](https://youtu.be/dvtdmL6lwvs), [Intro Course Slides](/slides/00-Intro_to_Course.html), [Intro to Data Slides](/slides/01-Intro_to_Data.html)</t>
   </si>
 </sst>
 </file>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,6 +565,9 @@
       <c r="D2" t="s">
         <v>37</v>
       </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -778,20 +781,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="57" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -802,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44069</v>
       </c>
@@ -812,11 +814,8 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44074</v>
       </c>
@@ -827,7 +826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44081</v>
       </c>
@@ -838,7 +837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44088</v>
       </c>
@@ -849,7 +848,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44102</v>
       </c>
@@ -860,7 +859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44109</v>
       </c>
@@ -871,7 +870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44116</v>
       </c>
@@ -882,7 +881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44123</v>
       </c>
@@ -893,7 +892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44137</v>
       </c>
@@ -904,7 +903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44165</v>
       </c>
@@ -915,7 +914,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44174</v>
       </c>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1299E90B-05A0-0845-99C7-2F33284846FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F710211-24F8-2845-918D-07EEFB433B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="3320" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="5980" yWindow="3320" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jb2329/Dropbox (Personal)/School/Teaching/DATA606 2020 Fall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F710211-24F8-2845-918D-07EEFB433B05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E793AB2-0F38-1C46-86A4-36601EAE4EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="3320" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="18120" yWindow="7920" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/dvtdmL6lwvs), [Intro Course Slides](/slides/00-Intro_to_Course.html), [Intro to Data Slides](/slides/01-Intro_to_Data.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/6dVJyQY0W3g), [Slides](/slides/02-Summarizing_Data.html)</t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,6 +585,9 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -783,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E793AB2-0F38-1C46-86A4-36601EAE4EEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADAEAF3-F28E-1E4E-ADC8-0C28C5014A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18120" yWindow="7920" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/6dVJyQY0W3g), [Slides](/slides/02-Summarizing_Data.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/p_BD0cB1Pv0), [Slides](/slides/03-Probability.html)</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,6 +604,9 @@
       </c>
       <c r="D4" t="s">
         <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADAEAF3-F28E-1E4E-ADC8-0C28C5014A91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0785F7-7816-4049-A542-E1EA117B570A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18120" yWindow="7920" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>Date</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/p_BD0cB1Pv0), [Slides](/slides/03-Probability.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/2tvjKz-QraE), [Slides](/slides/04-Distributions.html), [Is the "hot hand" real?](https://www.youtube.com/watch?v=bPZFQ6i759g)</t>
   </si>
 </sst>
 </file>
@@ -622,6 +625,9 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0785F7-7816-4049-A542-E1EA117B570A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DFAE5C-97DD-4D46-8348-DC493EBB469B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18120" yWindow="7920" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/2tvjKz-QraE), [Slides](/slides/04-Distributions.html), [Is the "hot hand" real?](https://www.youtube.com/watch?v=bPZFQ6i759g)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/s2Hj1SawZ4g), [Slides](/slides/04-Distributions2.html)</t>
   </si>
 </sst>
 </file>
@@ -533,7 +536,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,6 +644,9 @@
       </c>
       <c r="D6" t="s">
         <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DFAE5C-97DD-4D46-8348-DC493EBB469B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70A5326-88D3-9049-A373-E01295DB5A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18120" yWindow="7920" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/s2Hj1SawZ4g), [Slides](/slides/04-Distributions2.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/3aGevjSJu3M), [Slides](/slides/05-Foundation_for_Inference.html)</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -661,6 +664,9 @@
       </c>
       <c r="D7" t="s">
         <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70A5326-88D3-9049-A373-E01295DB5A77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4042F63-70E5-FD40-87A2-DC0E2DD35AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18120" yWindow="7920" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/3aGevjSJu3M), [Slides](/slides/05-Foundation_for_Inference.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/YzAZel5XUCU), [Slides](/slides/06-Inference_for_Categorical_Data.html)</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -681,6 +684,9 @@
       </c>
       <c r="D8" t="s">
         <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4042F63-70E5-FD40-87A2-DC0E2DD35AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F974DB-2FEE-274D-84CB-9B3E6873A0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18120" yWindow="7920" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -167,7 +167,10 @@
     <t>[Video](https://youtu.be/3aGevjSJu3M), [Slides](/slides/05-Foundation_for_Inference.html)</t>
   </si>
   <si>
-    <t>[Video](https://youtu.be/YzAZel5XUCU), [Slides](/slides/06-Inference_for_Categorical_Data.html)</t>
+    <t>[Video](https://youtu.be/YzAZel5XUCU), [Slides](/slides/06-Inference_for_Categorical_Data.html), [Chi-Squared Distribution App](https://shiny.rit.albany.edu/stat/chisq/)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/d44SBL2EfFM), [Slides](/slides/07-Inference_for_Numerical_Data.html), [t-Distribution App](https://shiny.rit.albany.edu/stat/tdist/), [F-Distribution App](https://shiny.rit.albany.edu/stat/fdist/)</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,6 +704,9 @@
       </c>
       <c r="D9" t="s">
         <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F974DB-2FEE-274D-84CB-9B3E6873A0C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265A83A8-873C-2343-A8B5-0B59A17E6D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18120" yWindow="7920" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/d44SBL2EfFM), [Slides](/slides/07-Inference_for_Numerical_Data.html), [t-Distribution App](https://shiny.rit.albany.edu/stat/tdist/), [F-Distribution App](https://shiny.rit.albany.edu/stat/fdist/)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/0gmPqeyf_NE), [Slides](/slides/08-Linear_Regression.html), [Shiny App](https://bcdudek.net/rectangles/)</t>
   </si>
 </sst>
 </file>
@@ -722,6 +725,9 @@
       <c r="D10" t="s">
         <v>10</v>
       </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265A83A8-873C-2343-A8B5-0B59A17E6D4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B2AB5-E18A-7B45-B385-0F2B40E3AC57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18120" yWindow="7920" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -173,7 +173,7 @@
     <t>[Video](https://youtu.be/d44SBL2EfFM), [Slides](/slides/07-Inference_for_Numerical_Data.html), [t-Distribution App](https://shiny.rit.albany.edu/stat/tdist/), [F-Distribution App](https://shiny.rit.albany.edu/stat/fdist/)</t>
   </si>
   <si>
-    <t>[Video](https://youtu.be/0gmPqeyf_NE), [Slides](/slides/08-Linear_Regression.html), [Shiny App](https://bcdudek.net/rectangles/)</t>
+    <t>[Video](https://youtu.be/0gmPqeyf_NE), [Slides](/slides/08-Linear_Regression.html), [Shiny App](https://bcdudek.net/rectangles/), [Signficance-vs-Sample-Size.R](https://github.com/jbryer/DATA606Fall2020/blob/master/R/Signficance-vs-Sample-Size.R), [Bootstrap_and_Permutations.R](https://github.com/jbryer/DATA606Fall2020/blob/master/R/Bootstrap_and_Permutations.R)</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B2AB5-E18A-7B45-B385-0F2B40E3AC57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69A5FD8-A739-6E47-82EC-28AEF73DB4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18120" yWindow="7920" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -146,9 +146,6 @@
     <t>NO CLASS - Thanksgiving</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>[Video](https://youtu.be/dvtdmL6lwvs), [Intro Course Slides](/slides/00-Intro_to_Course.html), [Intro to Data Slides](/slides/01-Intro_to_Data.html)</t>
   </si>
   <si>
@@ -174,6 +171,12 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/0gmPqeyf_NE), [Slides](/slides/08-Linear_Regression.html), [Shiny App](https://bcdudek.net/rectangles/), [Signficance-vs-Sample-Size.R](https://github.com/jbryer/DATA606Fall2020/blob/master/R/Signficance-vs-Sample-Size.R), [Bootstrap_and_Permutations.R](https://github.com/jbryer/DATA606Fall2020/blob/master/R/Bootstrap_and_Permutations.R)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/LiM3TJEt9_0), [Slides](/slides/08-Linear_Regression2.html]</t>
+  </si>
+  <si>
+    <t>Project Proposal Discussion</t>
   </si>
 </sst>
 </file>
@@ -548,7 +551,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,7 +593,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -607,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -624,7 +627,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -641,7 +644,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -658,7 +661,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -675,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -692,7 +695,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -709,7 +712,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -726,7 +729,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -742,6 +745,9 @@
       <c r="D11" t="s">
         <v>10</v>
       </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -754,7 +760,7 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69A5FD8-A739-6E47-82EC-28AEF73DB4B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78165C4-7AE6-D842-A0E6-4C250DBDA98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18120" yWindow="7920" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -173,10 +173,10 @@
     <t>[Video](https://youtu.be/0gmPqeyf_NE), [Slides](/slides/08-Linear_Regression.html), [Shiny App](https://bcdudek.net/rectangles/), [Signficance-vs-Sample-Size.R](https://github.com/jbryer/DATA606Fall2020/blob/master/R/Signficance-vs-Sample-Size.R), [Bootstrap_and_Permutations.R](https://github.com/jbryer/DATA606Fall2020/blob/master/R/Bootstrap_and_Permutations.R)</t>
   </si>
   <si>
-    <t>[Video](https://youtu.be/LiM3TJEt9_0), [Slides](/slides/08-Linear_Regression2.html]</t>
-  </si>
-  <si>
     <t>Project Proposal Discussion</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/LiM3TJEt9_0), [Slides](/slides/08-Linear_Regression2.html)</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -760,7 +760,7 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78165C4-7AE6-D842-A0E6-4C250DBDA98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2062D5C2-D2CB-7641-97A7-7F404FFAE452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18120" yWindow="7920" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="13300" yWindow="8760" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>Date</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/LiM3TJEt9_0), [Slides](/slides/08-Linear_Regression2.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/AsxEmbIYUBg), [Slides](/slides/Data_Project.html], [Rmd file for slides](https://github.com/jbryer/DATA606Fall2020/blob/master/Slides/Data_Project.Rmd)</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -761,6 +764,9 @@
       </c>
       <c r="D12" t="s">
         <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2062D5C2-D2CB-7641-97A7-7F404FFAE452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD3EA2-4AAE-244F-85AE-9823B9317687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13300" yWindow="8760" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -179,7 +179,7 @@
     <t>[Video](https://youtu.be/LiM3TJEt9_0), [Slides](/slides/08-Linear_Regression2.html)</t>
   </si>
   <si>
-    <t>[Video](https://youtu.be/AsxEmbIYUBg), [Slides](/slides/Data_Project.html], [Rmd file for slides](https://github.com/jbryer/DATA606Fall2020/blob/master/Slides/Data_Project.Rmd)</t>
+    <t>[Video](https://youtu.be/AsxEmbIYUBg), [Slides](/slides/Data_Project.html), [Rmd file for slides](https://github.com/jbryer/DATA606Fall2020/blob/master/Slides/Data_Project.Rmd)</t>
   </si>
 </sst>
 </file>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD3EA2-4AAE-244F-85AE-9823B9317687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B9676-D16C-4F46-AAF5-44B257CD78A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13300" yWindow="8760" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/AsxEmbIYUBg), [Slides](/slides/Data_Project.html), [Rmd file for slides](https://github.com/jbryer/DATA606Fall2020/blob/master/Slides/Data_Project.Rmd)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/4kuMA0lFe2Y), [Slides](/slides/09a-Multiple_Regression.html), [Order_of_Predictors.R](https://github.com/jbryer/DATA606Fall2020/blob/master/R/Order_of_Predictors.R)</t>
   </si>
 </sst>
 </file>
@@ -782,6 +785,9 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338B9676-D16C-4F46-AAF5-44B257CD78A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A6D13-E27B-214B-9366-248C824570B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13300" yWindow="8760" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/4kuMA0lFe2Y), [Slides](/slides/09a-Multiple_Regression.html), [Order_of_Predictors.R](https://github.com/jbryer/DATA606Fall2020/blob/master/R/Order_of_Predictors.R)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/niSDLEGt8Ss), [Slides](/slides/09b-Logistic_Regression.html)</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,6 +804,9 @@
       </c>
       <c r="D14" t="s">
         <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6A6D13-E27B-214B-9366-248C824570B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F886E98-0DDD-044C-A1CF-86A0F21447D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13300" yWindow="8760" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/niSDLEGt8Ss), [Slides](/slides/09b-Logistic_Regression.html)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/9nI2gWlT8j4), [Slides](/slides/10-Bayesian_Analysis.html), [mle.R](https://github.com/jbryer/DATA606Fall2020/blob/master/R/mle.R)</t>
   </si>
 </sst>
 </file>
@@ -560,7 +563,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,6 +832,9 @@
       </c>
       <c r="D16" t="s">
         <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox/School/Teaching/DATA606 2020 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F886E98-0DDD-044C-A1CF-86A0F21447D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6436DA-6CD6-3B40-BEDD-ABA8758B7EFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13300" yWindow="8760" windowWidth="28800" windowHeight="17540" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>[Video](https://youtu.be/9nI2gWlT8j4), [Slides](/slides/10-Bayesian_Analysis.html), [mle.R](https://github.com/jbryer/DATA606Fall2020/blob/master/R/mle.R)</t>
+  </si>
+  <si>
+    <t>[Video](https://youtu.be/YJ4S7sJuZfo), [Slides](/slides/11-Final_Meetup.html)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -837,7 +840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44174</v>
       </c>
@@ -849,6 +852,9 @@
       </c>
       <c r="D17" t="s">
         <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
